--- a/data-raw/whiskycollection.xlsx
+++ b/data-raw/whiskycollection.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P375820\Desktop\dstools\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P375820\Projekte\Business Analytics and Decision Intelligence with R\dstools\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2833862-912B-4B50-893B-08CA03AD4CC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C98FB-DB01-4D77-88FC-2CF35D39F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="2295" windowWidth="20880" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$H$39</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,31 +28,561 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>AnCnoc</t>
-  </si>
-  <si>
-    <t>Aberfeldy</t>
-  </si>
-  <si>
-    <t>Ardmore</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="179">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Glenmorangie</t>
+  </si>
+  <si>
+    <t>Lagavulin</t>
+  </si>
+  <si>
+    <t>Glenkinchie</t>
+  </si>
+  <si>
+    <t>Glen Grant</t>
+  </si>
+  <si>
+    <t>Royal Salute</t>
+  </si>
+  <si>
+    <t>The Glenlivet</t>
+  </si>
+  <si>
+    <t>Ballantine’s</t>
+  </si>
+  <si>
+    <t>Dewar’s</t>
+  </si>
+  <si>
+    <t>Laphroaig</t>
+  </si>
+  <si>
+    <t>Auchentoshan</t>
+  </si>
+  <si>
+    <t>Jack Daniels</t>
+  </si>
+  <si>
+    <t>Kavalan</t>
+  </si>
+  <si>
+    <t>Eagle Rare</t>
+  </si>
+  <si>
+    <t>Bushmills</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>Tullamore Dew</t>
+  </si>
+  <si>
+    <t>Glendalough</t>
+  </si>
+  <si>
+    <t>Midleton</t>
+  </si>
+  <si>
+    <t>Hakushu</t>
+  </si>
+  <si>
+    <t>Hibiki</t>
+  </si>
+  <si>
+    <t>Canadian Club</t>
+  </si>
+  <si>
+    <t>Crown Royal</t>
+  </si>
+  <si>
+    <t>Whistlepig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glenfiddich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardbeg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalwhinnie </t>
+  </si>
+  <si>
+    <t>Highland Park</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ardbeg_distillery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Auchentoshan_distillery</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Distillery</t>
+  </si>
+  <si>
+    <t>Ardbeg distillery</t>
+  </si>
+  <si>
+    <t>Single Malt</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>55.6406114241932, -6.107878725864291</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Auchentoshan distillery</t>
+  </si>
+  <si>
+    <t>55.922066708629245, -4.437533995096446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Pernod Ricard</t>
+  </si>
+  <si>
+    <t>Blended</t>
+  </si>
+  <si>
+    <t>55.9659724419173, -4.568164585896366</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ballantine%27s</t>
+  </si>
+  <si>
+    <t>Irland</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Old_Bushmills_Distillery</t>
+  </si>
+  <si>
+    <t>55.2029699817353, -6.51675462291842</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Canadian_Club</t>
+  </si>
+  <si>
+    <t>Hiram Walker-Gooderham &amp; Worts, Ltd</t>
+  </si>
+  <si>
+    <t>42.325973229888106, -83.00766769306955</t>
+  </si>
+  <si>
+    <t>50.654686738277206, -97.00186337315431</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Crown_Royal</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dalwhinnie</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glendalough</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glenfiddich</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Midleton</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Highland</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>56.939722388961044, -4.238174471907238</t>
+  </si>
+  <si>
+    <t>Dalwhinnie distillery</t>
+  </si>
+  <si>
+    <t>Glen Grant distillery</t>
+  </si>
+  <si>
+    <t>Glenkinchie distillery</t>
+  </si>
+  <si>
+    <t>Glenmorangie distillery</t>
+  </si>
+  <si>
+    <t>Highland Park distillery</t>
+  </si>
+  <si>
+    <t>Kavalan distillery</t>
+  </si>
+  <si>
+    <t>Lagavulin distillery</t>
+  </si>
+  <si>
+    <t>Laphroaig distillery</t>
+  </si>
+  <si>
+    <t>Talisker distillery</t>
+  </si>
+  <si>
+    <t>Old Bushmills distillery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bacardi</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>56.639976131912924, -3.7503645229286118</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dewar%27s</t>
+  </si>
+  <si>
+    <t>Bourbon</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eagle_Rare</t>
+  </si>
+  <si>
+    <t>38.216843268297005, -84.86998816849622</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>The Glenlivet distillery</t>
+  </si>
+  <si>
+    <t>Buffalo Trace distillery</t>
+  </si>
+  <si>
+    <t>Speyside</t>
+  </si>
+  <si>
+    <t>57.530423895390676, -3.2098315749877258</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glen_Grant_distillery</t>
+  </si>
+  <si>
+    <t>Glendalough Irish Whiskey</t>
+  </si>
+  <si>
+    <t>53.08507404362672, -6.106651680166288</t>
+  </si>
+  <si>
+    <t>William Grant &amp; Sons</t>
+  </si>
+  <si>
+    <t>57.45489142555237, -3.1279305275414218</t>
+  </si>
+  <si>
+    <t>Lowland</t>
+  </si>
+  <si>
+    <t>55.89083503303456, -2.890410875800266</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glenkinchie_distillery</t>
+  </si>
+  <si>
+    <t>57.82718494841921, -4.078189123347371</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glenmorangie_distillery</t>
+  </si>
+  <si>
+    <t>Suntory Hakushu Distillery</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Beam Suntory</t>
+  </si>
+  <si>
+    <t>35.92436401587811, 139.0640081760816</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Highland_Park_distillery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lagavulin_distillery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Laphroaig_distillery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Talisker_distillery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Glenlivet_distillery</t>
+  </si>
+  <si>
+    <t>34.89245195232795, 135.67488717318747</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hibiki_(whisky)</t>
+  </si>
+  <si>
+    <t>58.96816784664513, -2.9549525213711556</t>
+  </si>
+  <si>
+    <t>Teneessee</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jack_Daniel%27s</t>
+  </si>
+  <si>
+    <t>35.307698744657834, -86.36403384294879</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jameson_Irish_Whiskey</t>
+  </si>
+  <si>
+    <t>51.916387168298925, -8.164718280977242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Midleton distillery </t>
+  </si>
+  <si>
+    <t>24.714084531530208, 121.69221401455636</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kavalan_Distillery</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>55.63558155989088, -6.125421788240578</t>
+  </si>
+  <si>
+    <t>Islay</t>
+  </si>
+  <si>
+    <t>55.632586363678016, -6.147461568083861</t>
+  </si>
+  <si>
+    <t>51.9163474599816, -8.164621723376182</t>
+  </si>
+  <si>
+    <t>57.54675122889626, -2.953151083650849</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Royal_Salute_(whisky)</t>
+  </si>
+  <si>
+    <t>57.30240569911666, -6.356137549891923</t>
+  </si>
+  <si>
+    <t>57.34356592371422, -3.337880272507409</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tullamore_Dew</t>
+  </si>
+  <si>
+    <t>Tullamore D.E.W. Distillery</t>
+  </si>
+  <si>
+    <t>53.25287693211202, -7.5002945956441485</t>
+  </si>
+  <si>
+    <t>WhistlePig distillery</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>43.650988373838125, -72.33227827106973</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/WhistlePig</t>
+  </si>
+  <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>Richness</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>Gimli</t>
+  </si>
+  <si>
+    <t>Wicklow Mountains</t>
+  </si>
+  <si>
+    <t>Skye</t>
+  </si>
+  <si>
+    <t>Double Malt</t>
+  </si>
+  <si>
+    <t>Caol Ila</t>
+  </si>
+  <si>
+    <t>Bowmore</t>
+  </si>
+  <si>
+    <t>Glen Spey</t>
+  </si>
+  <si>
+    <t>Caol Ila distillery</t>
+  </si>
+  <si>
+    <t>Bunmahabhain</t>
+  </si>
+  <si>
+    <t>An Cnoc</t>
+  </si>
+  <si>
+    <t>Mortlach</t>
+  </si>
+  <si>
+    <t>Brora</t>
+  </si>
+  <si>
+    <t>Rosebank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knockdhu </t>
+  </si>
+  <si>
+    <t>57.78497402327632, -1.6207674406702595</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Knockdhu</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bowmore_distillery</t>
+  </si>
+  <si>
+    <t>Bowmore distillery</t>
+  </si>
+  <si>
+    <t>55.756718827510745, -6.289152434196375</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brora_distillery</t>
+  </si>
+  <si>
+    <t>Brora distillery</t>
+  </si>
+  <si>
+    <t>58.02538030697375, -3.863758501818989</t>
+  </si>
+  <si>
+    <t>57.325529974050674, -3.531045032007508</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bunnahabhain_distillery</t>
+  </si>
+  <si>
+    <t>Bunnahabhain distillery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Caol_Ila_distillery</t>
+  </si>
+  <si>
+    <t>55.85421949551099, -6.108930995444943</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glen_Spey_Distillery</t>
+  </si>
+  <si>
+    <t>57.525897705161796, -3.209503611291366</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mortlach_distillery</t>
+  </si>
+  <si>
+    <t>Mortlach distillery</t>
+  </si>
+  <si>
+    <t>57.443038402539656, -3.1225794615771716</t>
+  </si>
+  <si>
+    <t>56.00239543962147, -3.80334445623993</t>
+  </si>
+  <si>
+    <t>Rosebank distillery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rosebank_distillery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/H%C5%8Dki_Province</t>
+  </si>
+  <si>
+    <t>Smokness</t>
+  </si>
+  <si>
+    <t>Junglivet</t>
+  </si>
+  <si>
+    <t>Junglivet Premium distillery</t>
+  </si>
+  <si>
+    <t>Jack Daniel distillery</t>
+  </si>
+  <si>
+    <t>Glen Spey distillery</t>
+  </si>
+  <si>
+    <t>Strathisla distillery</t>
+  </si>
+  <si>
+    <t>New Midleton distillery</t>
+  </si>
+  <si>
+    <t>55.648397550298384, -6.302728542166173</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +605,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,51 +893,1386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>1894</v>
+      </c>
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3">
+        <v>1815</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>1823</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <v>1957</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>1779</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>1819</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8">
+        <v>1881</v>
+      </c>
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>-4</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9">
+        <v>1743</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10">
+        <v>1846</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="K10">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>1897</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12">
+        <v>1939</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>1898</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>1846</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>1975</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16">
+        <v>1840</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17">
+        <v>2011</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <v>1886</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>-2</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19">
+        <v>1837</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>1843</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>-2</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21">
+        <v>1878</v>
+      </c>
+      <c r="G21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>-5</v>
+      </c>
+      <c r="K21">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>-2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>1798</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25">
+        <v>1875</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>-2</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26">
+        <v>1780</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27">
+        <v>2017</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28">
+        <v>2005</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29">
+        <v>1816</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30">
+        <v>1815</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>1825</v>
+      </c>
+      <c r="G31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <v>1823</v>
+      </c>
+      <c r="G32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33">
+        <v>1789</v>
+      </c>
+      <c r="G33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>-5</v>
+      </c>
+      <c r="K33">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>1953</v>
+      </c>
+      <c r="G34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>-2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35">
+        <v>1830</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36">
+        <v>1824</v>
+      </c>
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>-3</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37">
+        <v>1829</v>
+      </c>
+      <c r="G37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38">
+        <v>2007</v>
+      </c>
+      <c r="G38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{4F3854B9-374A-4AEE-AEC4-E26FBB107FD1}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{79CB4FC2-E8C3-4ECC-839B-A73190D5EFDC}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{A6DCD20C-1530-4874-84FA-2877C970C12C}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{60DB21CB-0091-4D4B-85A8-8BA70B62F34D}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{26607685-084C-481D-9265-AA3C62C4A790}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{24EBDB28-3BC5-460D-BD2B-A97B4C9F34D6}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{DE655D7C-857A-4180-9C7D-0BC47FB9BC7F}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{89EC99C3-2105-442A-8088-605A4A301F8E}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{7F8785ED-6A61-40BC-8F47-9DDB1844F669}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{9A825F9D-C47D-4456-9C52-308553E867A3}"/>
+    <hyperlink ref="H18" r:id="rId11" xr:uid="{D25AB817-8E1B-43BC-9CF5-7E431674AF80}"/>
+    <hyperlink ref="H19" r:id="rId12" xr:uid="{F924B3FE-A90B-4FCA-9E51-EEAB1FAA7C14}"/>
+    <hyperlink ref="H20" r:id="rId13" xr:uid="{999647CF-AA18-488B-8E1F-133A383BF7FC}"/>
+    <hyperlink ref="H24" r:id="rId14" xr:uid="{0A5F4173-47A0-4FA5-BF19-23D68FBD5390}"/>
+    <hyperlink ref="H23" r:id="rId15" xr:uid="{C648A16D-52E9-4ED0-B455-43E73960026B}"/>
+    <hyperlink ref="H25" r:id="rId16" xr:uid="{F7ACB11F-66AC-4707-8932-676AB9EE9942}"/>
+    <hyperlink ref="H28" r:id="rId17" xr:uid="{7970B409-C436-401C-82D2-17E01B3967A3}"/>
+    <hyperlink ref="H29" r:id="rId18" xr:uid="{E103577D-B2EC-46DC-A5C2-6F11E393461D}"/>
+    <hyperlink ref="H30" r:id="rId19" xr:uid="{29C691B9-3661-43C0-9221-5411F5BF79B3}"/>
+    <hyperlink ref="H31" r:id="rId20" xr:uid="{B6B78E93-4473-4D32-97FA-8906E3F3B24F}"/>
+    <hyperlink ref="H34" r:id="rId21" xr:uid="{599215AA-57AF-40E7-A1F0-4FD56AE82F16}"/>
+    <hyperlink ref="H35" r:id="rId22" xr:uid="{E1C3EA55-FC59-4D33-B256-66550C066411}"/>
+    <hyperlink ref="H36" r:id="rId23" xr:uid="{FD9089BE-A133-4471-879E-23EED83610DE}"/>
+    <hyperlink ref="H37" r:id="rId24" xr:uid="{9745EFB9-3236-48D6-9BBB-46AC10710E81}"/>
+    <hyperlink ref="H38" r:id="rId25" xr:uid="{7013D434-86F4-4049-B7E5-277149AB1E48}"/>
+    <hyperlink ref="H2" r:id="rId26" xr:uid="{C6699C3C-43F2-4502-ABD1-785124795EFA}"/>
+    <hyperlink ref="H6" r:id="rId27" xr:uid="{4B6B11C8-CBEF-4D94-B41F-8159C6B7302C}"/>
+    <hyperlink ref="H7" r:id="rId28" xr:uid="{1333849E-93E9-466C-B0DB-3648EAFA94F8}"/>
+    <hyperlink ref="H8" r:id="rId29" xr:uid="{AE29FAAD-2F0E-45D7-8904-A50B5D7F910B}"/>
+    <hyperlink ref="H10" r:id="rId30" xr:uid="{DB875296-E837-42B9-9FA2-C4139C92BF43}"/>
+    <hyperlink ref="H21" r:id="rId31" xr:uid="{466FEED4-A4BB-4EF2-A70D-6B5A5FE4C961}"/>
+    <hyperlink ref="H32" r:id="rId32" xr:uid="{CEA143C9-B2C1-4B5A-BA6E-409F0695F492}"/>
+    <hyperlink ref="H33" r:id="rId33" xr:uid="{3808DFFC-BE16-406D-809D-4E043F041AFA}"/>
+    <hyperlink ref="H17" r:id="rId34" xr:uid="{1CB8653C-0590-4CB9-A4F9-A737DBC8AB61}"/>
+    <hyperlink ref="H22" r:id="rId35" xr:uid="{F5CCF872-4591-4C61-8B75-F4E5398CADAC}"/>
+    <hyperlink ref="H26" r:id="rId36" xr:uid="{F706F808-D532-455C-97A3-9D1780FDF4D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/data-raw/whiskycollection.xlsx
+++ b/data-raw/whiskycollection.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P375820\Projekte\Business Analytics and Decision Intelligence with R\dstools\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Lehre\Business Analytics and Decision Support with R\[git] dstools\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C98FB-DB01-4D77-88FC-2CF35D39F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF78ED8B-1497-4E6C-978F-BE69598D444C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="179">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="193">
   <si>
     <t>Glenmorangie</t>
   </si>
@@ -123,15 +120,6 @@
     <t>https://en.wikipedia.org/wiki/Auchentoshan_distillery</t>
   </si>
   <si>
-    <t>Wikipedia</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Distillery</t>
-  </si>
-  <si>
     <t>Ardbeg distillery</t>
   </si>
   <si>
@@ -144,12 +132,6 @@
     <t>55.6406114241932, -6.107878725864291</t>
   </si>
   <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Auchentoshan distillery</t>
   </si>
   <si>
@@ -207,15 +189,9 @@
     <t>https://en.wikipedia.org/wiki/Midleton</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Highland</t>
   </si>
   <si>
-    <t>Foundation</t>
-  </si>
-  <si>
     <t>56.939722388961044, -4.238174471907238</t>
   </si>
   <si>
@@ -426,12 +402,6 @@
     <t>https://en.wikipedia.org/wiki/WhistlePig</t>
   </si>
   <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Richness</t>
-  </si>
-  <si>
     <t>Northern Ireland</t>
   </si>
   <si>
@@ -540,12 +510,6 @@
     <t>https://en.wikipedia.org/wiki/Rosebank_distillery</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/H%C5%8Dki_Province</t>
-  </si>
-  <si>
-    <t>Smokness</t>
-  </si>
-  <si>
     <t>Junglivet</t>
   </si>
   <si>
@@ -565,6 +529,84 @@
   </si>
   <si>
     <t>55.648397550298384, -6.302728542166173</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DISTILLERY</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>FOUNDATION</t>
+  </si>
+  <si>
+    <t>COORDINATES</t>
+  </si>
+  <si>
+    <t>WIKIPEDIA</t>
+  </si>
+  <si>
+    <t>RATING</t>
+  </si>
+  <si>
+    <t>SMOKNESS</t>
+  </si>
+  <si>
+    <t>RICHNESS</t>
+  </si>
+  <si>
+    <t>Glen Breton</t>
+  </si>
+  <si>
+    <t>Glenora Distillery</t>
+  </si>
+  <si>
+    <t>46.15384793203386, -61.323403104945406</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glenora_Distillers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Car Conductor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westward </t>
+  </si>
+  <si>
+    <t>House Spirits Distillery</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>46.586370138549036, -122.57746802348521</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/House_Spirits_Distillery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hakushu_distillery</t>
+  </si>
+  <si>
+    <t>http://www.junglivet.com</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>CRITIQUES</t>
+  </si>
+  <si>
+    <t>REVIEWS</t>
   </si>
 </sst>
 </file>
@@ -893,1347 +935,1829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>1894</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
         <v>-1</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>1815</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>4</v>
       </c>
       <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>91</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <v>1823</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>91</v>
+      </c>
+      <c r="L4">
         <v>-2</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>1957</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>81</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F6">
         <v>1779</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K6">
+        <v>88</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>1819</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K7">
+        <v>95</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F8">
         <v>1881</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8">
         <v>-4</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F9">
         <v>1743</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>89</v>
+      </c>
+      <c r="L9">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F10">
         <v>1846</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>91</v>
+      </c>
+      <c r="L10">
         <v>4</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
       </c>
       <c r="F11">
         <v>1897</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
       </c>
       <c r="F12">
         <v>1939</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>1898</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>87</v>
+      </c>
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>1846</v>
       </c>
       <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>87</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-2</v>
+      </c>
+      <c r="N14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>-1</v>
-      </c>
-      <c r="K14">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F15">
         <v>1975</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>89</v>
+      </c>
+      <c r="L15">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>1989</v>
+      </c>
+      <c r="G16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>87</v>
+      </c>
+      <c r="L16">
+        <v>-3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17">
+        <v>1840</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>73</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18">
+        <v>2011</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>93</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>1886</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>89</v>
+      </c>
+      <c r="L19">
+        <v>-2</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20">
+        <v>1837</v>
+      </c>
+      <c r="G20" t="s">
         <v>84</v>
       </c>
-      <c r="F16">
-        <v>1840</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>87</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>1843</v>
+      </c>
+      <c r="G21" t="s">
         <v>86</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
+      <c r="H21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>89</v>
+      </c>
+      <c r="L21">
+        <v>-2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>1878</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>89</v>
+      </c>
+      <c r="L22">
+        <v>-5</v>
+      </c>
+      <c r="M22">
+        <v>-5</v>
+      </c>
+      <c r="N22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23">
+        <v>1973</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>89</v>
+      </c>
+      <c r="L23">
+        <v>-2</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24">
+        <v>1989</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
         <v>-1</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25">
+        <v>1798</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>91</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>1875</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>84</v>
+      </c>
+      <c r="L26">
+        <v>-2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>1780</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17">
-        <v>2011</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17">
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28">
+        <v>2017</v>
+      </c>
+      <c r="G28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>92</v>
+      </c>
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="J17">
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29">
+        <v>2005</v>
+      </c>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>90</v>
+      </c>
+      <c r="L29">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30">
+        <v>2005</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>89</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31">
+        <v>1816</v>
+      </c>
+      <c r="G31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
         <v>89</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18">
-        <v>1886</v>
-      </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>-2</v>
-      </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19">
-        <v>1837</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>-1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20">
-        <v>1843</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32">
+        <v>1815</v>
+      </c>
+      <c r="G32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>-2</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21">
-        <v>1878</v>
-      </c>
-      <c r="G21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>-5</v>
-      </c>
-      <c r="K21">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>-2</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <v>-1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24">
-        <v>1798</v>
-      </c>
-      <c r="G24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25">
-        <v>1875</v>
-      </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>-2</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26">
-        <v>1780</v>
-      </c>
-      <c r="G26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>-1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27">
-        <v>2017</v>
-      </c>
-      <c r="G27" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28">
-        <v>2005</v>
-      </c>
-      <c r="G28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29">
-        <v>1816</v>
-      </c>
-      <c r="G29" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30">
-        <v>1815</v>
-      </c>
-      <c r="G30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31">
-        <v>1825</v>
-      </c>
-      <c r="G31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <v>-1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32">
-        <v>1823</v>
-      </c>
-      <c r="G32" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="I32">
         <v>4</v>
       </c>
       <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>91</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>-4</v>
+      </c>
+      <c r="N32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>1825</v>
+      </c>
+      <c r="G33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>94</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
         <v>1</v>
       </c>
-      <c r="K32">
+      <c r="N33">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34">
+        <v>1823</v>
+      </c>
+      <c r="G34" t="s">
+        <v>156</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <v>89</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="N34">
         <v>91</v>
       </c>
-      <c r="F33">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35">
         <v>1789</v>
       </c>
-      <c r="G33" t="s">
-        <v>167</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="J33">
+      <c r="G35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>82</v>
+      </c>
+      <c r="L35">
         <v>-5</v>
       </c>
-      <c r="K33">
+      <c r="M35">
         <v>-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="N35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>1953</v>
+      </c>
+      <c r="G36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>90</v>
+      </c>
+      <c r="L36">
+        <v>-2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37">
+        <v>1830</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>91</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34">
-        <v>1953</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38">
+        <v>1824</v>
+      </c>
+      <c r="G38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>90</v>
+      </c>
+      <c r="L38">
+        <v>-3</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>1829</v>
+      </c>
+      <c r="G39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>84</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40">
+        <v>2004</v>
+      </c>
+      <c r="G40" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>81</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="F41">
+        <v>2007</v>
+      </c>
+      <c r="G41" t="s">
         <v>122</v>
       </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>-2</v>
-      </c>
-      <c r="K34">
+      <c r="H41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35">
-        <v>1830</v>
-      </c>
-      <c r="G35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36">
-        <v>1824</v>
-      </c>
-      <c r="G36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
+      <c r="J41">
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+      <c r="M41">
         <v>-3</v>
       </c>
-      <c r="K36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37">
-        <v>1829</v>
-      </c>
-      <c r="G37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38">
-        <v>2007</v>
-      </c>
-      <c r="G38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>-1</v>
-      </c>
-      <c r="K38">
-        <v>-3</v>
+      <c r="N41">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{4F3854B9-374A-4AEE-AEC4-E26FBB107FD1}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{79CB4FC2-E8C3-4ECC-839B-A73190D5EFDC}"/>
@@ -2244,35 +2768,38 @@
     <hyperlink ref="H13" r:id="rId7" xr:uid="{DE655D7C-857A-4180-9C7D-0BC47FB9BC7F}"/>
     <hyperlink ref="H14" r:id="rId8" xr:uid="{89EC99C3-2105-442A-8088-605A4A301F8E}"/>
     <hyperlink ref="H15" r:id="rId9" xr:uid="{7F8785ED-6A61-40BC-8F47-9DDB1844F669}"/>
-    <hyperlink ref="H16" r:id="rId10" xr:uid="{9A825F9D-C47D-4456-9C52-308553E867A3}"/>
-    <hyperlink ref="H18" r:id="rId11" xr:uid="{D25AB817-8E1B-43BC-9CF5-7E431674AF80}"/>
-    <hyperlink ref="H19" r:id="rId12" xr:uid="{F924B3FE-A90B-4FCA-9E51-EEAB1FAA7C14}"/>
-    <hyperlink ref="H20" r:id="rId13" xr:uid="{999647CF-AA18-488B-8E1F-133A383BF7FC}"/>
-    <hyperlink ref="H24" r:id="rId14" xr:uid="{0A5F4173-47A0-4FA5-BF19-23D68FBD5390}"/>
-    <hyperlink ref="H23" r:id="rId15" xr:uid="{C648A16D-52E9-4ED0-B455-43E73960026B}"/>
-    <hyperlink ref="H25" r:id="rId16" xr:uid="{F7ACB11F-66AC-4707-8932-676AB9EE9942}"/>
-    <hyperlink ref="H28" r:id="rId17" xr:uid="{7970B409-C436-401C-82D2-17E01B3967A3}"/>
-    <hyperlink ref="H29" r:id="rId18" xr:uid="{E103577D-B2EC-46DC-A5C2-6F11E393461D}"/>
-    <hyperlink ref="H30" r:id="rId19" xr:uid="{29C691B9-3661-43C0-9221-5411F5BF79B3}"/>
-    <hyperlink ref="H31" r:id="rId20" xr:uid="{B6B78E93-4473-4D32-97FA-8906E3F3B24F}"/>
-    <hyperlink ref="H34" r:id="rId21" xr:uid="{599215AA-57AF-40E7-A1F0-4FD56AE82F16}"/>
-    <hyperlink ref="H35" r:id="rId22" xr:uid="{E1C3EA55-FC59-4D33-B256-66550C066411}"/>
-    <hyperlink ref="H36" r:id="rId23" xr:uid="{FD9089BE-A133-4471-879E-23EED83610DE}"/>
-    <hyperlink ref="H37" r:id="rId24" xr:uid="{9745EFB9-3236-48D6-9BBB-46AC10710E81}"/>
-    <hyperlink ref="H38" r:id="rId25" xr:uid="{7013D434-86F4-4049-B7E5-277149AB1E48}"/>
-    <hyperlink ref="H2" r:id="rId26" xr:uid="{C6699C3C-43F2-4502-ABD1-785124795EFA}"/>
-    <hyperlink ref="H6" r:id="rId27" xr:uid="{4B6B11C8-CBEF-4D94-B41F-8159C6B7302C}"/>
-    <hyperlink ref="H7" r:id="rId28" xr:uid="{1333849E-93E9-466C-B0DB-3648EAFA94F8}"/>
-    <hyperlink ref="H8" r:id="rId29" xr:uid="{AE29FAAD-2F0E-45D7-8904-A50B5D7F910B}"/>
-    <hyperlink ref="H10" r:id="rId30" xr:uid="{DB875296-E837-42B9-9FA2-C4139C92BF43}"/>
-    <hyperlink ref="H21" r:id="rId31" xr:uid="{466FEED4-A4BB-4EF2-A70D-6B5A5FE4C961}"/>
-    <hyperlink ref="H32" r:id="rId32" xr:uid="{CEA143C9-B2C1-4B5A-BA6E-409F0695F492}"/>
-    <hyperlink ref="H33" r:id="rId33" xr:uid="{3808DFFC-BE16-406D-809D-4E043F041AFA}"/>
-    <hyperlink ref="H17" r:id="rId34" xr:uid="{1CB8653C-0590-4CB9-A4F9-A737DBC8AB61}"/>
-    <hyperlink ref="H22" r:id="rId35" xr:uid="{F5CCF872-4591-4C61-8B75-F4E5398CADAC}"/>
-    <hyperlink ref="H26" r:id="rId36" xr:uid="{F706F808-D532-455C-97A3-9D1780FDF4D0}"/>
+    <hyperlink ref="H17" r:id="rId10" xr:uid="{9A825F9D-C47D-4456-9C52-308553E867A3}"/>
+    <hyperlink ref="H19" r:id="rId11" xr:uid="{D25AB817-8E1B-43BC-9CF5-7E431674AF80}"/>
+    <hyperlink ref="H21" r:id="rId12" xr:uid="{999647CF-AA18-488B-8E1F-133A383BF7FC}"/>
+    <hyperlink ref="H25" r:id="rId13" xr:uid="{0A5F4173-47A0-4FA5-BF19-23D68FBD5390}"/>
+    <hyperlink ref="H24" r:id="rId14" xr:uid="{C648A16D-52E9-4ED0-B455-43E73960026B}"/>
+    <hyperlink ref="H26" r:id="rId15" xr:uid="{F7ACB11F-66AC-4707-8932-676AB9EE9942}"/>
+    <hyperlink ref="H29" r:id="rId16" xr:uid="{7970B409-C436-401C-82D2-17E01B3967A3}"/>
+    <hyperlink ref="H31" r:id="rId17" xr:uid="{E103577D-B2EC-46DC-A5C2-6F11E393461D}"/>
+    <hyperlink ref="H32" r:id="rId18" xr:uid="{29C691B9-3661-43C0-9221-5411F5BF79B3}"/>
+    <hyperlink ref="H33" r:id="rId19" xr:uid="{B6B78E93-4473-4D32-97FA-8906E3F3B24F}"/>
+    <hyperlink ref="H36" r:id="rId20" xr:uid="{599215AA-57AF-40E7-A1F0-4FD56AE82F16}"/>
+    <hyperlink ref="H37" r:id="rId21" xr:uid="{E1C3EA55-FC59-4D33-B256-66550C066411}"/>
+    <hyperlink ref="H38" r:id="rId22" xr:uid="{FD9089BE-A133-4471-879E-23EED83610DE}"/>
+    <hyperlink ref="H39" r:id="rId23" xr:uid="{9745EFB9-3236-48D6-9BBB-46AC10710E81}"/>
+    <hyperlink ref="H41" r:id="rId24" xr:uid="{7013D434-86F4-4049-B7E5-277149AB1E48}"/>
+    <hyperlink ref="H2" r:id="rId25" xr:uid="{C6699C3C-43F2-4502-ABD1-785124795EFA}"/>
+    <hyperlink ref="H6" r:id="rId26" xr:uid="{4B6B11C8-CBEF-4D94-B41F-8159C6B7302C}"/>
+    <hyperlink ref="H7" r:id="rId27" xr:uid="{1333849E-93E9-466C-B0DB-3648EAFA94F8}"/>
+    <hyperlink ref="H8" r:id="rId28" xr:uid="{AE29FAAD-2F0E-45D7-8904-A50B5D7F910B}"/>
+    <hyperlink ref="H10" r:id="rId29" xr:uid="{DB875296-E837-42B9-9FA2-C4139C92BF43}"/>
+    <hyperlink ref="H22" r:id="rId30" xr:uid="{466FEED4-A4BB-4EF2-A70D-6B5A5FE4C961}"/>
+    <hyperlink ref="H34" r:id="rId31" xr:uid="{CEA143C9-B2C1-4B5A-BA6E-409F0695F492}"/>
+    <hyperlink ref="H35" r:id="rId32" xr:uid="{3808DFFC-BE16-406D-809D-4E043F041AFA}"/>
+    <hyperlink ref="H18" r:id="rId33" xr:uid="{1CB8653C-0590-4CB9-A4F9-A737DBC8AB61}"/>
+    <hyperlink ref="H23" r:id="rId34" xr:uid="{F5CCF872-4591-4C61-8B75-F4E5398CADAC}"/>
+    <hyperlink ref="H27" r:id="rId35" xr:uid="{F706F808-D532-455C-97A3-9D1780FDF4D0}"/>
+    <hyperlink ref="H16" r:id="rId36" xr:uid="{3E860692-57E1-42E4-B46D-53199F2A28D9}"/>
+    <hyperlink ref="H30" r:id="rId37" xr:uid="{143DFC49-E5C0-42CD-B4D1-638D27B061DD}"/>
+    <hyperlink ref="H28" r:id="rId38" xr:uid="{2AB95567-5804-432C-A1D2-93F091CD8E9C}"/>
+    <hyperlink ref="H20" r:id="rId39" xr:uid="{696F7F2E-EBCB-4426-B349-C25988642816}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>